--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>9.216781486431467</v>
+        <v>15.62845556394901</v>
       </c>
       <c r="C2">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D2">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E2">
-        <v>3.107619446065882</v>
+        <v>5.269441669416063</v>
       </c>
       <c r="F2">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G2">
-        <v>14.99419324107224</v>
+        <v>25.42493636529641</v>
       </c>
       <c r="H2">
-        <v>0.2444838160314994</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I2">
-        <v>34.62284035128018</v>
+        <v>58.7082945086925</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>11.0584860307632</v>
+        <v>18.75134587825065</v>
       </c>
       <c r="C3">
-        <v>1.209736695306901</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="D3">
-        <v>4.63419208685604</v>
+        <v>7.857977886408063</v>
       </c>
       <c r="E3">
-        <v>1.364320732419168</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F3">
-        <v>3.322656971595899</v>
+        <v>5.634070517053916</v>
       </c>
       <c r="G3">
-        <v>4.914763340129236</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="H3">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I3">
-        <v>27.07461809447728</v>
+        <v>45.90913502976581</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>11.88436250804201</v>
+        <v>20.15174512233212</v>
       </c>
       <c r="C4">
-        <v>1.255387136639238</v>
+        <v>2.128699927344794</v>
       </c>
       <c r="D4">
-        <v>4.260466918561197</v>
+        <v>7.2242699923429</v>
       </c>
       <c r="E4">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F4">
-        <v>3.551089638393117</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="G4">
-        <v>4.581559045883185</v>
+        <v>7.768730556062793</v>
       </c>
       <c r="H4">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I4">
-        <v>27.04792293344528</v>
+        <v>45.86386932192897</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>11.6861521534951</v>
+        <v>19.81564930375255</v>
       </c>
       <c r="C5">
-        <v>1.11843581264223</v>
+        <v>1.896478117088998</v>
       </c>
       <c r="D5">
-        <v>3.811996716607387</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="E5">
-        <v>1.440116328664677</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="F5">
-        <v>4.194854426639822</v>
+        <v>7.113014027780569</v>
       </c>
       <c r="G5">
-        <v>4.748161193006211</v>
+        <v>8.051229849010529</v>
       </c>
       <c r="H5">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I5">
-        <v>27.52943156579034</v>
+        <v>46.68034048112274</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>12.06605533304335</v>
+        <v>20.45983295603003</v>
       </c>
       <c r="C6">
-        <v>1.209736695306901</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="D6">
-        <v>4.783682154173976</v>
+        <v>8.111461044034135</v>
       </c>
       <c r="E6">
-        <v>1.440116328664677</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="F6">
-        <v>3.654922668755488</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="G6">
-        <v>3.831849383829574</v>
+        <v>6.497483737797972</v>
       </c>
       <c r="H6">
-        <v>0.3667257240472492</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I6">
-        <v>27.35308828782122</v>
+        <v>46.38132361847946</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>12.35511210009093</v>
+        <v>20.94997269145854</v>
       </c>
       <c r="C7">
-        <v>1.095610591976062</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="D7">
-        <v>5.232152356127787</v>
+        <v>8.871910516912331</v>
       </c>
       <c r="E7">
-        <v>2.19807229111977</v>
+        <v>3.727166058855262</v>
       </c>
       <c r="F7">
-        <v>3.13575751694363</v>
+        <v>5.317154050469633</v>
       </c>
       <c r="G7">
-        <v>3.248741868898986</v>
+        <v>5.508736212480888</v>
       </c>
       <c r="H7">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I7">
-        <v>27.83590896256401</v>
+        <v>47.20001954521722</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>13.62696187510029</v>
+        <v>23.10658752734397</v>
       </c>
       <c r="C8">
-        <v>1.186911474640734</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="D8">
-        <v>4.559447053197071</v>
+        <v>7.731236307595034</v>
       </c>
       <c r="E8">
-        <v>2.652845868592827</v>
+        <v>4.498303864135661</v>
       </c>
       <c r="F8">
-        <v>3.094224304798681</v>
+        <v>5.246728169006459</v>
       </c>
       <c r="G8">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H8">
-        <v>0.9779352641259977</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="I8">
-        <v>28.18085267949341</v>
+        <v>47.78492410870622</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>15.13005706374772</v>
+        <v>25.6553141515722</v>
       </c>
       <c r="C9">
-        <v>0.7760575026497104</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="D9">
-        <v>3.513016581971513</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="E9">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F9">
-        <v>3.011157880508784</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="G9">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H9">
-        <v>0.2444838160314994</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I9">
-        <v>28.5170575869585</v>
+        <v>48.35501069092959</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>14.69234253078995</v>
+        <v>24.91310255220904</v>
       </c>
       <c r="C10">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D10">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E10">
-        <v>5.457282929676672</v>
+        <v>9.253653663364789</v>
       </c>
       <c r="F10">
-        <v>1.619795273653001</v>
+        <v>2.746609377063783</v>
       </c>
       <c r="G10">
-        <v>1.499419324107224</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H10">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I10">
-        <v>26.72679852825422</v>
+        <v>45.3193540261702</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>10.35649102507622</v>
+        <v>17.56100652078142</v>
       </c>
       <c r="C11">
-        <v>0.433679192657191</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D11">
-        <v>2.541331144404925</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="E11">
-        <v>4.244553389748522</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="F11">
-        <v>0.8306642428989747</v>
+        <v>1.408517629263479</v>
       </c>
       <c r="G11">
-        <v>0.9163118091766371</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="H11">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I11">
-        <v>19.44527271197822</v>
+        <v>32.97241894639785</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>8.779066953473702</v>
+        <v>14.88624396458585</v>
       </c>
       <c r="C12">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D12">
-        <v>1.719135774156273</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="E12">
-        <v>3.562393023538938</v>
+        <v>6.040579474696461</v>
       </c>
       <c r="F12">
-        <v>0.789131030754026</v>
+        <v>1.338091747800305</v>
       </c>
       <c r="G12">
-        <v>1.416118250545712</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="H12">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I12">
-        <v>17.21960116178729</v>
+        <v>29.19845414390019</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>7.044726351188208</v>
+        <v>11.94540555201479</v>
       </c>
       <c r="C13">
-        <v>0.6847566199850387</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D13">
-        <v>1.345410605861431</v>
+        <v>2.2813484186346</v>
       </c>
       <c r="E13">
-        <v>3.031823849820374</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="F13">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G13">
-        <v>0.9163118091766371</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="H13">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I13">
-        <v>13.56138917496996</v>
+        <v>22.99539903581863</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>5.34342080799387</v>
+        <v>9.060583109206997</v>
       </c>
       <c r="C14">
-        <v>0.7760575026497104</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="D14">
-        <v>1.121175504884526</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="E14">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F14">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G14">
-        <v>0.5831075149305871</v>
+        <v>0.988747525317083</v>
       </c>
       <c r="H14">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I14">
-        <v>9.140583869336874</v>
+        <v>15.49925090887557</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>3.344799732979163</v>
+        <v>5.671616938529885</v>
       </c>
       <c r="C15">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D15">
-        <v>0.8969404039076204</v>
+        <v>1.5208989457564</v>
       </c>
       <c r="E15">
-        <v>0.682160366209584</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="F15">
-        <v>0.4776319396669105</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="G15">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="H15">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I15">
-        <v>6.944047482829037</v>
+        <v>11.77468921001446</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>2.510664490927569</v>
+        <v>4.257213702007616</v>
       </c>
       <c r="C16">
-        <v>0.7075818406512066</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="D16">
-        <v>0.4484702019538102</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="E16">
-        <v>0.227386788736528</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="F16">
-        <v>0.1868994546522693</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="G16">
-        <v>0.6664085884920996</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="H16">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I16">
-        <v>4.788158668085399</v>
+        <v>8.119051654579589</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>1.602200365920883</v>
+        <v>2.716774533518018</v>
       </c>
       <c r="C17">
-        <v>0.7988827233158786</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="E17">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F17">
-        <v>0.394565515377013</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="G17">
-        <v>0.6664085884920996</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="H17">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I17">
-        <v>3.5786000920233</v>
+        <v>6.068061025604725</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.9580167136434141</v>
+        <v>1.624463123134486</v>
       </c>
       <c r="C18">
-        <v>0.6619313993188705</v>
+        <v>1.122405416236346</v>
       </c>
       <c r="D18">
-        <v>0.4484702019538102</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="F18">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G18">
-        <v>1.166215029861174</v>
+        <v>1.977495050634166</v>
       </c>
       <c r="I18">
-        <v>3.52536582979191</v>
+        <v>5.977794233125415</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.189262127281479</v>
+        <v>2.016574911477292</v>
       </c>
       <c r="C19">
-        <v>0.433679192657191</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D19">
-        <v>0.373725168294842</v>
+        <v>0.6337078940651664</v>
       </c>
       <c r="E19">
-        <v>0.3031823849820373</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="F19">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G19">
-        <v>1.416118250545712</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="I19">
-        <v>4.006699608775902</v>
+        <v>6.793968901837402</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.965586015923556</v>
+        <v>3.332950200913857</v>
       </c>
       <c r="C20">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D20">
-        <v>0.747450336589684</v>
+        <v>1.267415788130333</v>
       </c>
       <c r="E20">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F20">
-        <v>0.4983985457393848</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="G20">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="I20">
-        <v>5.50037738686026</v>
+        <v>9.326726873371745</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>4.45147421253276</v>
+        <v>7.548151925599031</v>
       </c>
       <c r="C21">
-        <v>0.433679192657191</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D21">
-        <v>1.719135774156273</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="E21">
-        <v>1.970685502383242</v>
+        <v>3.341597156215064</v>
       </c>
       <c r="F21">
-        <v>1.245996364348462</v>
+        <v>2.112776443895219</v>
       </c>
       <c r="G21">
-        <v>2.748935427529911</v>
+        <v>4.661238333637675</v>
       </c>
       <c r="H21">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I21">
-        <v>12.61065377627976</v>
+        <v>21.3832824902135</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>8.209212184151326</v>
+        <v>13.91996848616963</v>
       </c>
       <c r="C22">
-        <v>0.4793296339895269</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="D22">
-        <v>3.064546380017704</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="E22">
-        <v>7.048990450832367</v>
+        <v>11.95263598184619</v>
       </c>
       <c r="F22">
-        <v>2.13896042546486</v>
+        <v>3.626932895353458</v>
       </c>
       <c r="G22">
-        <v>4.498257972321674</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="H22">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I22">
-        <v>25.60228625746512</v>
+        <v>43.41257234961476</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>11.55401191713048</v>
+        <v>19.59158542469953</v>
       </c>
       <c r="C23">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D23">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E23">
-        <v>5.533078525922183</v>
+        <v>9.382176630911527</v>
       </c>
       <c r="F23">
-        <v>2.471226122624449</v>
+        <v>4.19033994705885</v>
       </c>
       <c r="G23">
-        <v>4.498257972321674</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="H23">
-        <v>0.2852311187034159</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="I23">
-        <v>27.10511963610834</v>
+        <v>45.96085503514025</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>14.12248776146757</v>
+        <v>23.94682707379285</v>
       </c>
       <c r="C24">
-        <v>0.6391061786527028</v>
+        <v>1.083701781193713</v>
       </c>
       <c r="D24">
-        <v>4.036231817584293</v>
+        <v>6.844045255903801</v>
       </c>
       <c r="E24">
-        <v>2.956028253574864</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="F24">
-        <v>2.969624668363834</v>
+        <v>5.035450524616937</v>
       </c>
       <c r="G24">
-        <v>6.497483737797972</v>
+        <v>11.01747242496178</v>
       </c>
       <c r="H24">
-        <v>0.3667257240472492</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I24">
-        <v>31.58768814148848</v>
+        <v>53.56173206600222</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>10.63728902735101</v>
+        <v>18.03714226376912</v>
       </c>
       <c r="C25">
-        <v>0.4108539719910232</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D25">
-        <v>3.811996716607387</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="E25">
-        <v>6.291034488377274</v>
+        <v>10.66740630637886</v>
       </c>
       <c r="F25">
-        <v>3.364190183740848</v>
+        <v>5.704496398517089</v>
       </c>
       <c r="G25">
-        <v>10.41263419518905</v>
+        <v>17.65620580923362</v>
       </c>
       <c r="H25">
-        <v>0.7334514480944984</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="I25">
-        <v>35.66145003135109</v>
+        <v>60.46941527055188</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>9.03508866143013</v>
+        <v>15.3203677302511</v>
       </c>
       <c r="C26">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D26">
-        <v>3.587761615630482</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="E26">
-        <v>3.031823849820374</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="F26">
-        <v>3.987188365915078</v>
+        <v>6.760884620464699</v>
       </c>
       <c r="G26">
-        <v>16.32701041805644</v>
+        <v>27.68493070887831</v>
       </c>
       <c r="H26">
-        <v>0.2852311187034159</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="I26">
-        <v>36.64213278088078</v>
+        <v>62.13231210671088</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>10.83549938189793</v>
+        <v>18.37323808234865</v>
       </c>
       <c r="C27">
-        <v>0.9358340473128861</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="D27">
-        <v>6.652307995648187</v>
+        <v>11.28000051435996</v>
       </c>
       <c r="E27">
-        <v>1.288525136173659</v>
+        <v>2.184890448294464</v>
       </c>
       <c r="F27">
-        <v>3.239590547306002</v>
+        <v>5.493218754127566</v>
       </c>
       <c r="G27">
-        <v>5.331268707936797</v>
+        <v>9.039977374327611</v>
       </c>
       <c r="H27">
-        <v>0.6112095400787485</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="I27">
-        <v>28.89423535635421</v>
+        <v>48.99457299555712</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>11.64485832963116</v>
+        <v>19.74562934154849</v>
       </c>
       <c r="C28">
-        <v>0.9586592679790539</v>
+        <v>1.62555267179057</v>
       </c>
       <c r="D28">
-        <v>6.129092760035407</v>
+        <v>10.39280946266873</v>
       </c>
       <c r="E28">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F28">
-        <v>3.468023214103219</v>
+        <v>5.880561102175025</v>
       </c>
       <c r="G28">
-        <v>4.998064413690747</v>
+        <v>8.474978788432137</v>
       </c>
       <c r="H28">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I28">
-        <v>28.75450297403804</v>
+        <v>48.75763547771668</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>11.45490673985703</v>
+        <v>19.42353751540974</v>
       </c>
       <c r="C29">
-        <v>0.867358385314382</v>
+        <v>1.470738131620039</v>
       </c>
       <c r="D29">
-        <v>5.456387457104692</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="E29">
-        <v>1.364320732419168</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F29">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G29">
-        <v>5.164666560813772</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="H29">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I29">
-        <v>28.96912350919333</v>
+        <v>49.12155725471911</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>11.82655115463249</v>
+        <v>20.05371717524641</v>
       </c>
       <c r="C30">
-        <v>0.9358340473128861</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="D30">
-        <v>6.876543096625091</v>
+        <v>11.66022525079907</v>
       </c>
       <c r="E30">
-        <v>1.364320732419168</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F30">
-        <v>3.571856244465591</v>
+        <v>6.056625805832958</v>
       </c>
       <c r="G30">
-        <v>4.165053678075622</v>
+        <v>7.062482323693447</v>
       </c>
       <c r="H30">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I30">
-        <v>29.14763198025001</v>
+        <v>49.4242455317283</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>12.10734915690728</v>
+        <v>20.52985291823408</v>
       </c>
       <c r="C31">
-        <v>0.8445331646482144</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="D31">
-        <v>7.549248399555804</v>
+        <v>12.80089946011637</v>
       </c>
       <c r="E31">
-        <v>2.122276694874261</v>
+        <v>3.598643091308529</v>
       </c>
       <c r="F31">
-        <v>3.052691092653732</v>
+        <v>5.176302287543286</v>
       </c>
       <c r="G31">
-        <v>3.498645089583523</v>
+        <v>5.932485151902495</v>
       </c>
       <c r="H31">
-        <v>0.6112095400787485</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="I31">
-        <v>29.78595313830156</v>
+        <v>50.5066161910331</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>13.35442263759829</v>
+        <v>22.6444557767971</v>
       </c>
       <c r="C32">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D32">
-        <v>6.577562961989219</v>
+        <v>11.15325893554693</v>
       </c>
       <c r="E32">
-        <v>2.577050272347317</v>
+        <v>4.369780896588929</v>
       </c>
       <c r="F32">
-        <v>3.011157880508784</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="G32">
-        <v>2.249128986160837</v>
+        <v>3.81374045479446</v>
       </c>
       <c r="H32">
-        <v>1.059429869469831</v>
+        <v>1.796424561274931</v>
       </c>
       <c r="I32">
-        <v>29.741761434721</v>
+        <v>50.43168243278777</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>14.82448276715456</v>
+        <v>25.13716643126207</v>
       </c>
       <c r="C33">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D33">
-        <v>5.082662288809851</v>
+        <v>8.618427359286267</v>
       </c>
       <c r="E33">
-        <v>3.941371004766485</v>
+        <v>6.683194312430128</v>
       </c>
       <c r="F33">
-        <v>2.928091456218886</v>
+        <v>4.965024643153763</v>
       </c>
       <c r="G33">
-        <v>1.915924691914787</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="H33">
-        <v>0.2852311187034159</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="I33">
-        <v>29.57121906488835</v>
+        <v>50.14250189263676</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>14.39502699896959</v>
+        <v>24.40895882433971</v>
       </c>
       <c r="C34">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D34">
-        <v>4.18572188490223</v>
+        <v>7.097528413529865</v>
       </c>
       <c r="E34">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F34">
-        <v>1.578262061508052</v>
+        <v>2.67618349560061</v>
       </c>
       <c r="G34">
-        <v>1.666021471230249</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="H34">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I34">
-        <v>27.55950020779255</v>
+        <v>46.73132643930037</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>10.15002190575652</v>
+        <v>17.21090670976105</v>
       </c>
       <c r="C35">
-        <v>0.3423783099925193</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D35">
-        <v>3.66250664928945</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="E35">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F35">
-        <v>0.8098976368265004</v>
+        <v>1.373304688531892</v>
       </c>
       <c r="G35">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="H35">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I35">
-        <v>20.17962148987639</v>
+        <v>34.21761904805127</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>8.605632893245151</v>
+        <v>14.59216012332874</v>
       </c>
       <c r="C36">
-        <v>0.7075818406512066</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="D36">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E36">
-        <v>3.486597427293429</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="F36">
-        <v>0.7683644246815515</v>
+        <v>1.302878807068718</v>
       </c>
       <c r="G36">
-        <v>1.582720397668737</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="H36">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I36">
-        <v>17.65823039695795</v>
+        <v>29.94221676005914</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>6.904327350050817</v>
+        <v>11.70733768052094</v>
       </c>
       <c r="C37">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D37">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E37">
-        <v>2.956028253574864</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="F37">
-        <v>0.4360987275219618</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G37">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="H37">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I37">
-        <v>13.84591276968466</v>
+        <v>23.47785208772616</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>5.236056865947624</v>
+        <v>8.878531207476412</v>
       </c>
       <c r="C38">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D38">
-        <v>1.644390740497305</v>
+        <v>2.788314733886733</v>
       </c>
       <c r="E38">
-        <v>0.9853427511916212</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F38">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G38">
-        <v>0.6664085884920996</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="H38">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I38">
-        <v>9.457134471135577</v>
+        <v>16.03601062496902</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>3.278729614796857</v>
+        <v>5.559584999003367</v>
       </c>
       <c r="C39">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D39">
-        <v>1.270665572202463</v>
+        <v>2.154606839821567</v>
       </c>
       <c r="E39">
-        <v>0.682160366209584</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="F39">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G39">
-        <v>1.082913956299662</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H39">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I39">
-        <v>7.200110897099774</v>
+        <v>12.20888369508222</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>2.461111902290841</v>
+        <v>4.173189747362728</v>
       </c>
       <c r="C40">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D40">
-        <v>0.6727053029307153</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="E40">
-        <v>0.227386788736528</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="F40">
-        <v>0.1868994546522693</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="G40">
-        <v>0.749709662053612</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="H40">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I40">
-        <v>4.886365709323913</v>
+        <v>8.285576637549243</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>1.569165306829729</v>
+        <v>2.66075856375476</v>
       </c>
       <c r="C41">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="E41">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F41">
-        <v>0.394565515377013</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="G41">
-        <v>0.749709662053612</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="H41">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I41">
-        <v>3.446264341164315</v>
+        <v>5.843665621974274</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.9414991840978384</v>
+        <v>1.596455138252856</v>
       </c>
       <c r="C42">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D42">
-        <v>0.6727053029307153</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="F42">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G42">
-        <v>1.249516103422687</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="I42">
-        <v>3.656607930121576</v>
+        <v>6.200335185858327</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.164485832963116</v>
+        <v>1.974562934154848</v>
       </c>
       <c r="C43">
-        <v>0.3423783099925193</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D43">
-        <v>0.5232152356127787</v>
+        <v>0.8871910516912331</v>
       </c>
       <c r="E43">
-        <v>0.3031823849820373</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="F43">
-        <v>0.2907324850146412</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G43">
-        <v>1.582720397668737</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="I43">
-        <v>4.20671464623383</v>
+        <v>7.13312483491823</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.924292192059617</v>
+        <v>3.262930238709786</v>
       </c>
       <c r="C44">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D44">
-        <v>1.046430471225557</v>
+        <v>1.774382103382466</v>
       </c>
       <c r="E44">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F44">
-        <v>0.4776319396669105</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="G44">
-        <v>1.915924691914787</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="I44">
-        <v>5.812598356018073</v>
+        <v>9.856145038465428</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>4.360627800032094</v>
+        <v>7.394108008750072</v>
       </c>
       <c r="C45">
-        <v>0.3423783099925193</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D45">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E45">
-        <v>1.894889906137733</v>
+        <v>3.213074188668331</v>
       </c>
       <c r="F45">
-        <v>1.204463152203513</v>
+        <v>2.042350562432044</v>
       </c>
       <c r="G45">
-        <v>2.998838648214448</v>
+        <v>5.084987273059284</v>
       </c>
       <c r="H45">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I45">
-        <v>13.30853122999818</v>
+        <v>22.56663991173605</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>8.044036888695565</v>
+        <v>13.63988863735335</v>
       </c>
       <c r="C46">
-        <v>0.3652035306586873</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="D46">
-        <v>4.409956985879135</v>
+        <v>7.477753149968966</v>
       </c>
       <c r="E46">
-        <v>6.821603662095841</v>
+        <v>11.56706707920599</v>
       </c>
       <c r="F46">
-        <v>2.076660607247437</v>
+        <v>3.521294073158698</v>
       </c>
       <c r="G46">
-        <v>4.914763340129236</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="H46">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I46">
-        <v>26.79521422539357</v>
+        <v>45.4353632517543</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>11.32276650349242</v>
+        <v>19.19947363635671</v>
       </c>
       <c r="C47">
-        <v>0.2282522066616795</v>
+        <v>0.3870363504263262</v>
       </c>
       <c r="D47">
-        <v>3.587761615630482</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="E47">
-        <v>5.381487333431161</v>
+        <v>9.12513069581806</v>
       </c>
       <c r="F47">
-        <v>2.408926304407026</v>
+        <v>4.084701124864089</v>
       </c>
       <c r="G47">
-        <v>4.914763340129236</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="H47">
-        <v>0.3259784213753326</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I47">
-        <v>28.16993572512734</v>
+        <v>47.76641275130287</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>13.84168975919277</v>
+        <v>23.47069133080514</v>
       </c>
       <c r="C48">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D48">
-        <v>5.830112625399535</v>
+        <v>9.885843147416598</v>
       </c>
       <c r="E48">
-        <v>2.880232657329354</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="F48">
-        <v>2.886558244073937</v>
+        <v>4.894598761690591</v>
       </c>
       <c r="G48">
-        <v>7.080591252728558</v>
+        <v>12.00621995027886</v>
       </c>
       <c r="H48">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I48">
-        <v>33.42881242009902</v>
+        <v>56.68363845147225</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>10.42256114325852</v>
+        <v>17.67303846030792</v>
       </c>
       <c r="C49">
-        <v>0.3195530893263514</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D49">
-        <v>5.456387457104692</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="E49">
-        <v>6.139443295886254</v>
+        <v>10.41036037128539</v>
       </c>
       <c r="F49">
-        <v>3.28112375945095</v>
+        <v>5.563644635590742</v>
       </c>
       <c r="G49">
-        <v>11.32894600436569</v>
+        <v>19.20995192044618</v>
       </c>
       <c r="H49">
-        <v>0.8149460534383314</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="I49">
-        <v>37.7629608028308</v>
+        <v>64.03284657871309</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>15.62845556394901</v>
+        <v>9.194098677194969</v>
       </c>
       <c r="C2">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D2">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E2">
-        <v>5.269441669416063</v>
+        <v>3.099971490087048</v>
       </c>
       <c r="F2">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="G2">
-        <v>25.42493636529641</v>
+        <v>14.95729202718937</v>
       </c>
       <c r="H2">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I2">
-        <v>58.7082945086925</v>
+        <v>34.5376323766667</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>18.75134587825065</v>
+        <v>11.03127072469898</v>
       </c>
       <c r="C3">
-        <v>2.051292657259529</v>
+        <v>1.206759492611314</v>
       </c>
       <c r="D3">
-        <v>7.857977886408063</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="E3">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="F3">
-        <v>5.634070517053916</v>
+        <v>3.314479801034137</v>
       </c>
       <c r="G3">
-        <v>8.333729141958266</v>
+        <v>4.902667942245404</v>
       </c>
       <c r="H3">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="I3">
-        <v>45.90913502976581</v>
+        <v>27.00798654871564</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>20.15174512233212</v>
+        <v>11.85511469218956</v>
       </c>
       <c r="C4">
-        <v>2.128699927344794</v>
+        <v>1.252297586672118</v>
       </c>
       <c r="D4">
-        <v>7.2242699923429</v>
+        <v>4.249981766177535</v>
       </c>
       <c r="E4">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="F4">
-        <v>6.021412865101372</v>
+        <v>3.542350287355234</v>
       </c>
       <c r="G4">
-        <v>7.768730556062793</v>
+        <v>4.570283674974529</v>
       </c>
       <c r="H4">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="I4">
-        <v>45.86386932192897</v>
+        <v>26.98135708537281</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>19.81564930375255</v>
+        <v>11.65739213999183</v>
       </c>
       <c r="C5">
-        <v>1.896478117088998</v>
+        <v>1.115683304489706</v>
       </c>
       <c r="D5">
-        <v>6.4638205194647</v>
+        <v>3.802615264474636</v>
       </c>
       <c r="E5">
-        <v>2.44193638338793</v>
+        <v>1.436572153942778</v>
       </c>
       <c r="F5">
-        <v>7.113014027780569</v>
+        <v>4.184530748805598</v>
       </c>
       <c r="G5">
-        <v>8.051229849010529</v>
+        <v>4.736475808609967</v>
       </c>
       <c r="H5">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="I5">
-        <v>46.68034048112274</v>
+        <v>27.46168070877855</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>20.45983295603003</v>
+        <v>12.0363603650375</v>
       </c>
       <c r="C6">
-        <v>2.051292657259529</v>
+        <v>1.206759492611314</v>
       </c>
       <c r="D6">
-        <v>8.111461044034135</v>
+        <v>4.771909351497582</v>
       </c>
       <c r="E6">
-        <v>2.44193638338793</v>
+        <v>1.436572153942778</v>
       </c>
       <c r="F6">
-        <v>6.197477568759307</v>
+        <v>3.64592778113755</v>
       </c>
       <c r="G6">
-        <v>6.497483737797972</v>
+        <v>3.822419073615062</v>
       </c>
       <c r="H6">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="I6">
-        <v>46.38132361847946</v>
+        <v>27.28577141754766</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>20.94997269145854</v>
+        <v>12.3247057536592</v>
       </c>
       <c r="C7">
-        <v>1.857774482046366</v>
+        <v>1.092914257459303</v>
       </c>
       <c r="D7">
-        <v>8.871910516912331</v>
+        <v>5.219275853200482</v>
       </c>
       <c r="E7">
-        <v>3.727166058855262</v>
+        <v>2.192662761281084</v>
       </c>
       <c r="F7">
-        <v>5.317154050469633</v>
+        <v>3.128040312225966</v>
       </c>
       <c r="G7">
-        <v>5.508736212480888</v>
+        <v>3.24074660589103</v>
       </c>
       <c r="H7">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="I7">
-        <v>47.20001954521722</v>
+        <v>27.76740385437065</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>23.10658752734397</v>
+        <v>13.59342546359471</v>
       </c>
       <c r="C8">
-        <v>2.012589022216896</v>
+        <v>1.183990445580912</v>
       </c>
       <c r="D8">
-        <v>7.731236307595034</v>
+        <v>4.548226100646135</v>
       </c>
       <c r="E8">
-        <v>4.498303864135661</v>
+        <v>2.646317125684067</v>
       </c>
       <c r="F8">
-        <v>5.246728169006459</v>
+        <v>3.08660931471304</v>
       </c>
       <c r="G8">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="H8">
-        <v>1.658238056561474</v>
+        <v>0.9755285325489854</v>
       </c>
       <c r="I8">
-        <v>47.78492410870622</v>
+        <v>28.11149865321082</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>25.6553141515722</v>
+        <v>15.09282148442758</v>
       </c>
       <c r="C9">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="D9">
-        <v>5.956854204212568</v>
+        <v>3.504370930006038</v>
       </c>
       <c r="E9">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F9">
-        <v>5.10587640608011</v>
+        <v>3.003747319687186</v>
       </c>
       <c r="G9">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="H9">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I9">
-        <v>48.35501069092959</v>
+        <v>28.44687614909066</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>24.91310255220904</v>
+        <v>14.65618418165757</v>
       </c>
       <c r="C10">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D10">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="E10">
-        <v>9.253653663364789</v>
+        <v>5.443852372835794</v>
       </c>
       <c r="F10">
-        <v>2.746609377063783</v>
+        <v>1.615808903004142</v>
       </c>
       <c r="G10">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="H10">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I10">
-        <v>45.3193540261702</v>
+        <v>26.66102297814367</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>17.56100652078142</v>
+        <v>10.33100335233198</v>
       </c>
       <c r="C11">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="D11">
-        <v>4.309213679643134</v>
+        <v>2.535076842983091</v>
       </c>
       <c r="E11">
-        <v>7.197286182617058</v>
+        <v>4.234107401094507</v>
       </c>
       <c r="F11">
-        <v>1.408517629263479</v>
+        <v>0.8286199502585342</v>
       </c>
       <c r="G11">
-        <v>1.553746111212558</v>
+        <v>0.9140567349949059</v>
       </c>
       <c r="H11">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="I11">
-        <v>32.97241894639785</v>
+        <v>19.39741724180928</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>14.88624396458585</v>
+        <v>8.757461374424956</v>
       </c>
       <c r="C12">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="D12">
-        <v>2.915056312699767</v>
+        <v>1.714904923194444</v>
       </c>
       <c r="E12">
-        <v>6.040579474696461</v>
+        <v>3.553625854490031</v>
       </c>
       <c r="F12">
-        <v>1.338091747800305</v>
+        <v>0.7871889527456074</v>
       </c>
       <c r="G12">
-        <v>2.401243990055772</v>
+        <v>1.412633135901219</v>
       </c>
       <c r="H12">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I12">
-        <v>29.19845414390019</v>
+        <v>17.17722314416189</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>11.94540555201479</v>
+        <v>7.027389042694721</v>
       </c>
       <c r="C13">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="D13">
-        <v>2.2813484186346</v>
+        <v>1.342099505108695</v>
       </c>
       <c r="E13">
-        <v>5.140918701869327</v>
+        <v>3.024362429353218</v>
       </c>
       <c r="F13">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="G13">
-        <v>1.553746111212558</v>
+        <v>0.9140567349949059</v>
       </c>
       <c r="H13">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I13">
-        <v>22.99539903581863</v>
+        <v>13.52801414008488</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>9.060583109206997</v>
+        <v>5.330270469664107</v>
       </c>
       <c r="C14">
-        <v>1.315923591449509</v>
+        <v>0.7741475990336733</v>
       </c>
       <c r="D14">
-        <v>1.9011236821955</v>
+        <v>1.118416254257246</v>
       </c>
       <c r="E14">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="F14">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="G14">
-        <v>0.988747525317083</v>
+        <v>0.581672467724031</v>
       </c>
       <c r="H14">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I14">
-        <v>15.49925090887557</v>
+        <v>9.118088584998882</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>5.671616938529885</v>
+        <v>3.336568068336883</v>
       </c>
       <c r="C15">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D15">
-        <v>1.5208989457564</v>
+        <v>0.8947330034057971</v>
       </c>
       <c r="E15">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="F15">
-        <v>0.8098976368265004</v>
+        <v>0.4764564713986572</v>
       </c>
       <c r="G15">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="H15">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I15">
-        <v>11.77468921001446</v>
+        <v>6.926957948416824</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>4.257213702007616</v>
+        <v>2.504485661171389</v>
       </c>
       <c r="C16">
-        <v>1.199812686321611</v>
+        <v>0.7058404579424669</v>
       </c>
       <c r="D16">
-        <v>0.7604494728781999</v>
+        <v>0.4473665017028985</v>
       </c>
       <c r="E16">
-        <v>0.3855689026401996</v>
+        <v>0.2268271822014913</v>
       </c>
       <c r="F16">
-        <v>0.3169164665842827</v>
+        <v>0.1864394888081702</v>
       </c>
       <c r="G16">
-        <v>1.129997171790951</v>
+        <v>0.6647685345417498</v>
       </c>
       <c r="H16">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I16">
-        <v>8.119051654579589</v>
+        <v>4.776374848557706</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.716774533518018</v>
+        <v>1.598257296931741</v>
       </c>
       <c r="C17">
-        <v>1.354627226492142</v>
+        <v>0.7969166460640756</v>
       </c>
       <c r="E17">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="F17">
-        <v>0.6690458739001525</v>
+        <v>0.3935944763728037</v>
       </c>
       <c r="G17">
-        <v>1.129997171790951</v>
+        <v>0.6647685345417498</v>
       </c>
       <c r="H17">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I17">
-        <v>6.068061025604725</v>
+        <v>3.569793036833742</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.624463123134486</v>
+        <v>0.9556590022890825</v>
       </c>
       <c r="C18">
-        <v>1.122405416236346</v>
+        <v>0.6603023638816625</v>
       </c>
       <c r="D18">
-        <v>0.7604494728781999</v>
+        <v>0.4473665017028985</v>
       </c>
       <c r="F18">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="G18">
-        <v>1.977495050634166</v>
+        <v>1.163344935448062</v>
       </c>
       <c r="I18">
-        <v>5.977794233125415</v>
+        <v>3.516689785912193</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.016574911477292</v>
+        <v>1.186335313186447</v>
       </c>
       <c r="C19">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="D19">
-        <v>0.6337078940651664</v>
+        <v>0.3728054180857487</v>
       </c>
       <c r="E19">
-        <v>0.5140918701869328</v>
+        <v>0.3024362429353218</v>
       </c>
       <c r="F19">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="G19">
-        <v>2.401243990055772</v>
+        <v>1.412633135901219</v>
       </c>
       <c r="I19">
-        <v>6.793968901837402</v>
+        <v>3.996838986276864</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>3.332950200913857</v>
+        <v>1.960748642627601</v>
       </c>
       <c r="C20">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D20">
-        <v>1.267415788130333</v>
+        <v>0.7456108361714974</v>
       </c>
       <c r="E20">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="F20">
-        <v>0.8451105775580874</v>
+        <v>0.4971719701551205</v>
       </c>
       <c r="G20">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="I20">
-        <v>9.326726873371745</v>
+        <v>5.48684077311081</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>7.548151925599031</v>
+        <v>4.440518984774271</v>
       </c>
       <c r="C21">
-        <v>0.7353690658100197</v>
+        <v>0.432611893577641</v>
       </c>
       <c r="D21">
-        <v>2.915056312699767</v>
+        <v>1.714904923194444</v>
       </c>
       <c r="E21">
-        <v>3.341597156215064</v>
+        <v>1.965835579079592</v>
       </c>
       <c r="F21">
-        <v>2.112776443895219</v>
+        <v>1.242929925387801</v>
       </c>
       <c r="G21">
-        <v>4.661238333637675</v>
+        <v>2.742170204984718</v>
       </c>
       <c r="H21">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I21">
-        <v>21.3832824902135</v>
+        <v>12.57961853318801</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>13.91996848616963</v>
+        <v>8.189009036856449</v>
       </c>
       <c r="C22">
-        <v>0.812776335895285</v>
+        <v>0.4781499876384451</v>
       </c>
       <c r="D22">
-        <v>5.196404731334367</v>
+        <v>3.05700442830314</v>
       </c>
       <c r="E22">
-        <v>11.95263598184619</v>
+        <v>7.031642648246232</v>
       </c>
       <c r="F22">
-        <v>3.626932895353458</v>
+        <v>2.133696371915726</v>
       </c>
       <c r="G22">
-        <v>7.627480909588921</v>
+        <v>4.487187608156813</v>
       </c>
       <c r="H22">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I22">
-        <v>43.41257234961476</v>
+        <v>25.53927816987497</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>19.59158542469953</v>
+        <v>11.52557710519332</v>
       </c>
       <c r="C23">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="D23">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E23">
-        <v>9.382176630911527</v>
+        <v>5.519461433569623</v>
       </c>
       <c r="F23">
-        <v>4.19033994705885</v>
+        <v>2.46514435201914</v>
       </c>
       <c r="G23">
-        <v>7.627480909588921</v>
+        <v>4.487187608156813</v>
       </c>
       <c r="H23">
-        <v>0.4836527664970966</v>
+        <v>0.2845291553267875</v>
       </c>
       <c r="I23">
-        <v>45.96085503514025</v>
+        <v>27.03841302502686</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>23.94682707379285</v>
+        <v>14.08773184408906</v>
       </c>
       <c r="C24">
-        <v>1.083701781193713</v>
+        <v>0.6375333168512606</v>
       </c>
       <c r="D24">
-        <v>6.844045255903801</v>
+        <v>4.026298515326086</v>
       </c>
       <c r="E24">
-        <v>5.012395734322595</v>
+        <v>2.948753368619388</v>
       </c>
       <c r="F24">
-        <v>5.035450524616937</v>
+        <v>2.96231632217426</v>
       </c>
       <c r="G24">
-        <v>11.01747242496178</v>
+        <v>6.481493211782061</v>
       </c>
       <c r="H24">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="I24">
-        <v>53.56173206600222</v>
+        <v>31.50994977854799</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>18.03714226376912</v>
+        <v>10.61111030127877</v>
       </c>
       <c r="C25">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="D25">
-        <v>6.4638205194647</v>
+        <v>3.802615264474636</v>
       </c>
       <c r="E25">
-        <v>10.66740630637886</v>
+        <v>6.275552040907927</v>
       </c>
       <c r="F25">
-        <v>5.704496398517089</v>
+        <v>3.355910798547063</v>
       </c>
       <c r="G25">
-        <v>17.65620580923362</v>
+        <v>10.38700835221484</v>
       </c>
       <c r="H25">
-        <v>1.243678542421105</v>
+        <v>0.7316463994117391</v>
       </c>
       <c r="I25">
-        <v>60.46941527055188</v>
+        <v>35.57368600338222</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>15.3203677302511</v>
+        <v>9.012853004347038</v>
       </c>
       <c r="C26">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D26">
-        <v>6.083595783025599</v>
+        <v>3.578932013623188</v>
       </c>
       <c r="E26">
-        <v>5.140918701869327</v>
+        <v>3.024362429353218</v>
       </c>
       <c r="F26">
-        <v>6.760884620464699</v>
+        <v>3.977375761240964</v>
       </c>
       <c r="G26">
-        <v>27.68493070887831</v>
+        <v>16.28682909627288</v>
       </c>
       <c r="H26">
-        <v>0.4836527664970966</v>
+        <v>0.2845291553267875</v>
       </c>
       <c r="I26">
-        <v>62.13231210671088</v>
+        <v>36.5519552596809</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>18.37323808234865</v>
+        <v>10.80883285347652</v>
       </c>
       <c r="C27">
-        <v>1.586849036747937</v>
+        <v>0.9335309282464883</v>
       </c>
       <c r="D27">
-        <v>11.28000051435996</v>
+        <v>6.635936441926328</v>
       </c>
       <c r="E27">
-        <v>2.184890448294464</v>
+        <v>1.285354032475118</v>
       </c>
       <c r="F27">
-        <v>5.493218754127566</v>
+        <v>3.231617806008284</v>
       </c>
       <c r="G27">
-        <v>9.039977374327611</v>
+        <v>5.318148276333998</v>
       </c>
       <c r="H27">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="I27">
-        <v>48.99457299555712</v>
+        <v>28.82312567130986</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>19.74562934154849</v>
+        <v>11.61619994161729</v>
       </c>
       <c r="C28">
-        <v>1.62555267179057</v>
+        <v>0.9562999752768903</v>
       </c>
       <c r="D28">
-        <v>10.39280946266873</v>
+        <v>6.11400885660628</v>
       </c>
       <c r="E28">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="F28">
-        <v>5.880561102175025</v>
+        <v>3.45948829232938</v>
       </c>
       <c r="G28">
-        <v>8.474978788432137</v>
+        <v>4.985764009063123</v>
       </c>
       <c r="H28">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="I28">
-        <v>48.75763547771668</v>
+        <v>28.68373717508634</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>19.42353751540974</v>
+        <v>11.42671582909446</v>
       </c>
       <c r="C29">
-        <v>1.470738131620039</v>
+        <v>0.8652237871552819</v>
       </c>
       <c r="D29">
-        <v>9.252135253351437</v>
+        <v>5.442959104051931</v>
       </c>
       <c r="E29">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="F29">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="G29">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="H29">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="I29">
-        <v>49.12155725471911</v>
+        <v>28.89782952188604</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>20.05371717524641</v>
+        <v>11.79744561446523</v>
       </c>
       <c r="C30">
-        <v>1.586849036747937</v>
+        <v>0.9335309282464883</v>
       </c>
       <c r="D30">
-        <v>11.66022525079907</v>
+        <v>6.859619692777777</v>
       </c>
       <c r="E30">
-        <v>2.313413415841197</v>
+        <v>1.360963093208948</v>
       </c>
       <c r="F30">
-        <v>6.056625805832958</v>
+        <v>3.563065786111696</v>
       </c>
       <c r="G30">
-        <v>7.062482323693447</v>
+        <v>4.154803340885936</v>
       </c>
       <c r="H30">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="I30">
-        <v>49.4242455317283</v>
+        <v>29.07589867759149</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>20.52985291823408</v>
+        <v>12.07755256341203</v>
       </c>
       <c r="C31">
-        <v>1.432034496577407</v>
+        <v>0.8424547401248796</v>
       </c>
       <c r="D31">
-        <v>12.80089946011637</v>
+        <v>7.530669445332125</v>
       </c>
       <c r="E31">
-        <v>3.598643091308529</v>
+        <v>2.117053700547253</v>
       </c>
       <c r="F31">
-        <v>5.176302287543286</v>
+        <v>3.045178317200114</v>
       </c>
       <c r="G31">
-        <v>5.932485151902495</v>
+        <v>3.490034806344187</v>
       </c>
       <c r="H31">
-        <v>1.036398785350922</v>
+        <v>0.6097053328431158</v>
       </c>
       <c r="I31">
-        <v>50.5066161910331</v>
+        <v>29.7126489058037</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>22.6444557767971</v>
+        <v>13.32155695432281</v>
       </c>
       <c r="C32">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="D32">
-        <v>11.15325893554693</v>
+        <v>6.561375358309177</v>
       </c>
       <c r="E32">
-        <v>4.369780896588929</v>
+        <v>2.570708064950235</v>
       </c>
       <c r="F32">
-        <v>5.10587640608011</v>
+        <v>3.003747319687186</v>
       </c>
       <c r="G32">
-        <v>3.81374045479446</v>
+        <v>2.243593804078406</v>
       </c>
       <c r="H32">
-        <v>1.796424561274931</v>
+        <v>1.056822576928067</v>
       </c>
       <c r="I32">
-        <v>50.43168243278777</v>
+        <v>29.66856595949197</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>25.13716643126207</v>
+        <v>14.78799921645606</v>
       </c>
       <c r="C33">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="D33">
-        <v>8.618427359286267</v>
+        <v>5.070153685966181</v>
       </c>
       <c r="E33">
-        <v>6.683194312430128</v>
+        <v>3.931671158159183</v>
       </c>
       <c r="F33">
-        <v>4.965024643153763</v>
+        <v>2.920885324661333</v>
       </c>
       <c r="G33">
-        <v>3.248741868898986</v>
+        <v>1.911209536807531</v>
       </c>
       <c r="H33">
-        <v>0.4836527664970966</v>
+        <v>0.2845291553267875</v>
       </c>
       <c r="I33">
-        <v>50.14250189263676</v>
+        <v>29.49844330016753</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>24.40895882433971</v>
+        <v>14.35960035336096</v>
       </c>
       <c r="C34">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D34">
-        <v>7.097528413529865</v>
+        <v>4.175420682560384</v>
       </c>
       <c r="E34">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="F34">
-        <v>2.67618349560061</v>
+        <v>1.574377905491215</v>
       </c>
       <c r="G34">
-        <v>2.824992929477379</v>
+        <v>1.661921336354375</v>
       </c>
       <c r="H34">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I34">
-        <v>46.73132643930037</v>
+        <v>27.49167535084144</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>17.21090670976105</v>
+        <v>10.12504236045933</v>
       </c>
       <c r="C35">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="D35">
-        <v>6.210337361838633</v>
+        <v>3.653493097240338</v>
       </c>
       <c r="E35">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F35">
-        <v>1.373304688531892</v>
+        <v>0.8079044515020709</v>
       </c>
       <c r="G35">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="H35">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="I35">
-        <v>34.21761904805127</v>
+        <v>20.12995876266586</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>14.59216012332874</v>
+        <v>8.584454141251934</v>
       </c>
       <c r="C36">
-        <v>1.199812686321611</v>
+        <v>0.7058404579424669</v>
       </c>
       <c r="D36">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E36">
-        <v>5.912056507149727</v>
+        <v>3.478016793756201</v>
       </c>
       <c r="F36">
-        <v>1.302878807068718</v>
+        <v>0.7664734539891439</v>
       </c>
       <c r="G36">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="H36">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I36">
-        <v>29.94221676005914</v>
+        <v>17.61477289803188</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>11.70733768052094</v>
+        <v>6.887335568221319</v>
       </c>
       <c r="C37">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="D37">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E37">
-        <v>5.012395734322595</v>
+        <v>2.948753368619388</v>
       </c>
       <c r="F37">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="G37">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="H37">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I37">
-        <v>23.47785208772616</v>
+        <v>13.81183751266329</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>8.878531207476412</v>
+        <v>5.22317075389033</v>
       </c>
       <c r="C38">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="D38">
-        <v>2.788314733886733</v>
+        <v>1.640343839577294</v>
       </c>
       <c r="E38">
-        <v>1.670798578107532</v>
+        <v>0.9829177895397958</v>
       </c>
       <c r="F38">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="G38">
-        <v>1.129997171790951</v>
+        <v>0.6647685345417498</v>
       </c>
       <c r="H38">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I38">
-        <v>16.03601062496902</v>
+        <v>9.433860145119654</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>5.559584999003367</v>
+        <v>3.270660550937637</v>
       </c>
       <c r="C39">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D39">
-        <v>2.154606839821567</v>
+        <v>1.267538421491545</v>
       </c>
       <c r="E39">
-        <v>1.156706707920599</v>
+        <v>0.6804815466044742</v>
       </c>
       <c r="F39">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="G39">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="H39">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I39">
-        <v>12.20888369508222</v>
+        <v>7.182391182012571</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>4.173189747362728</v>
+        <v>2.455055023121953</v>
       </c>
       <c r="C40">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="D40">
-        <v>1.1406742093173</v>
+        <v>0.6710497525543476</v>
       </c>
       <c r="E40">
-        <v>0.3855689026401996</v>
+        <v>0.2268271822014913</v>
       </c>
       <c r="F40">
-        <v>0.3169164665842827</v>
+        <v>0.1864394888081702</v>
       </c>
       <c r="G40">
-        <v>1.271246818264821</v>
+        <v>0.7478646013594684</v>
       </c>
       <c r="H40">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I40">
-        <v>8.285576637549243</v>
+        <v>4.874340198964623</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.66075856375476</v>
+        <v>1.565303538232119</v>
       </c>
       <c r="C41">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="E41">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="F41">
-        <v>0.6690458739001525</v>
+        <v>0.3935944763728037</v>
       </c>
       <c r="G41">
-        <v>1.271246818264821</v>
+        <v>0.7478646013594684</v>
       </c>
       <c r="H41">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I41">
-        <v>5.843665621974274</v>
+        <v>3.43778296870862</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>1.596455138252856</v>
+        <v>0.9391821229392712</v>
       </c>
       <c r="C42">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D42">
-        <v>1.1406742093173</v>
+        <v>0.6710497525543476</v>
       </c>
       <c r="F42">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="G42">
-        <v>2.118744697108034</v>
+        <v>1.246441002265781</v>
       </c>
       <c r="I42">
-        <v>6.200335185858327</v>
+        <v>3.647608895018734</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.974562934154848</v>
+        <v>1.161619994161729</v>
       </c>
       <c r="C43">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="D43">
-        <v>0.8871910516912331</v>
+        <v>0.521927585320048</v>
       </c>
       <c r="E43">
-        <v>0.5140918701869328</v>
+        <v>0.3024362429353218</v>
       </c>
       <c r="F43">
-        <v>0.4929811702422176</v>
+        <v>0.290016982590487</v>
       </c>
       <c r="G43">
-        <v>2.683743283003509</v>
+        <v>1.578825269536656</v>
       </c>
       <c r="I43">
-        <v>7.13312483491823</v>
+        <v>4.196361780000274</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>3.262930238709786</v>
+        <v>1.919556444253071</v>
       </c>
       <c r="C44">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="D44">
-        <v>1.774382103382466</v>
+        <v>1.043855170640096</v>
       </c>
       <c r="E44">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="F44">
-        <v>0.8098976368265004</v>
+        <v>0.4764564713986572</v>
       </c>
       <c r="G44">
-        <v>3.248741868898986</v>
+        <v>1.911209536807531</v>
       </c>
       <c r="I44">
-        <v>9.856145038465428</v>
+        <v>5.798293355962245</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>7.394108008750072</v>
+        <v>4.349896148350306</v>
       </c>
       <c r="C45">
-        <v>0.5805545256394893</v>
+        <v>0.3415357054560323</v>
       </c>
       <c r="D45">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E45">
-        <v>3.213074188668331</v>
+        <v>1.890226518345762</v>
       </c>
       <c r="F45">
-        <v>2.042350562432044</v>
+        <v>1.201498927874874</v>
       </c>
       <c r="G45">
-        <v>5.084987273059284</v>
+        <v>2.991458405437874</v>
       </c>
       <c r="H45">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I45">
-        <v>22.56663991173605</v>
+        <v>13.27577848702033</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>13.63988863735335</v>
+        <v>8.02424024335833</v>
       </c>
       <c r="C46">
-        <v>0.6192581606821218</v>
+        <v>0.3643047524864346</v>
       </c>
       <c r="D46">
-        <v>7.477753149968966</v>
+        <v>4.399103933411834</v>
       </c>
       <c r="E46">
-        <v>11.56706707920599</v>
+        <v>6.804815466044741</v>
       </c>
       <c r="F46">
-        <v>3.521294073158698</v>
+        <v>2.071549875646336</v>
       </c>
       <c r="G46">
-        <v>8.333729141958266</v>
+        <v>4.902667942245404</v>
       </c>
       <c r="H46">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I46">
-        <v>45.4353632517543</v>
+        <v>26.72927030195124</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>19.19947363635671</v>
+        <v>11.29490079429597</v>
       </c>
       <c r="C47">
-        <v>0.3870363504263262</v>
+        <v>0.2276904703040215</v>
       </c>
       <c r="D47">
-        <v>6.083595783025599</v>
+        <v>3.578932013623188</v>
       </c>
       <c r="E47">
-        <v>9.12513069581806</v>
+        <v>5.368243312101962</v>
       </c>
       <c r="F47">
-        <v>4.084701124864089</v>
+        <v>2.402997855749749</v>
       </c>
       <c r="G47">
-        <v>8.333729141958266</v>
+        <v>4.902667942245404</v>
       </c>
       <c r="H47">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="I47">
-        <v>47.76641275130287</v>
+        <v>28.10060856583663</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>23.47069133080514</v>
+        <v>13.80762489514227</v>
       </c>
       <c r="C48">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D48">
-        <v>9.885843147416598</v>
+        <v>5.81576452213768</v>
       </c>
       <c r="E48">
-        <v>4.883872766775861</v>
+        <v>2.873144307885557</v>
       </c>
       <c r="F48">
-        <v>4.894598761690591</v>
+        <v>2.879454327148407</v>
       </c>
       <c r="G48">
-        <v>12.00621995027886</v>
+        <v>7.063165679506092</v>
       </c>
       <c r="H48">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="I48">
-        <v>56.68363845147225</v>
+        <v>33.34654298838426</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>17.67303846030792</v>
+        <v>10.39691086973122</v>
       </c>
       <c r="C49">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="D49">
-        <v>9.252135253351437</v>
+        <v>5.442959104051931</v>
       </c>
       <c r="E49">
-        <v>10.41036037128539</v>
+        <v>6.124333919440268</v>
       </c>
       <c r="F49">
-        <v>5.563644635590742</v>
+        <v>3.27304880352121</v>
       </c>
       <c r="G49">
-        <v>19.20995192044618</v>
+        <v>11.30106508720975</v>
       </c>
       <c r="H49">
-        <v>1.381865047134561</v>
+        <v>0.812940443790821</v>
       </c>
       <c r="I49">
-        <v>64.03284657871309</v>
+        <v>37.67002488617083</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>9.194098677194969</v>
+        <v>15.62845556394901</v>
       </c>
       <c r="C2">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D2">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E2">
-        <v>3.099971490087048</v>
+        <v>5.269441669416063</v>
       </c>
       <c r="F2">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G2">
-        <v>14.95729202718937</v>
+        <v>25.42493636529641</v>
       </c>
       <c r="H2">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I2">
-        <v>34.5376323766667</v>
+        <v>58.7082945086925</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>11.03127072469898</v>
+        <v>18.75134587825065</v>
       </c>
       <c r="C3">
-        <v>1.206759492611314</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="D3">
-        <v>4.622787184263283</v>
+        <v>7.857977886408063</v>
       </c>
       <c r="E3">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F3">
-        <v>3.314479801034137</v>
+        <v>5.634070517053916</v>
       </c>
       <c r="G3">
-        <v>4.902667942245404</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="H3">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I3">
-        <v>27.00798654871564</v>
+        <v>45.90913502976581</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>11.85511469218956</v>
+        <v>20.15174512233212</v>
       </c>
       <c r="C4">
-        <v>1.252297586672118</v>
+        <v>2.128699927344794</v>
       </c>
       <c r="D4">
-        <v>4.249981766177535</v>
+        <v>7.2242699923429</v>
       </c>
       <c r="E4">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F4">
-        <v>3.542350287355234</v>
+        <v>6.021412865101372</v>
       </c>
       <c r="G4">
-        <v>4.570283674974529</v>
+        <v>7.768730556062793</v>
       </c>
       <c r="H4">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I4">
-        <v>26.98135708537281</v>
+        <v>45.86386932192897</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>11.65739213999183</v>
+        <v>19.81564930375255</v>
       </c>
       <c r="C5">
-        <v>1.115683304489706</v>
+        <v>1.896478117088998</v>
       </c>
       <c r="D5">
-        <v>3.802615264474636</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="E5">
-        <v>1.436572153942778</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="F5">
-        <v>4.184530748805598</v>
+        <v>7.113014027780569</v>
       </c>
       <c r="G5">
-        <v>4.736475808609967</v>
+        <v>8.051229849010529</v>
       </c>
       <c r="H5">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I5">
-        <v>27.46168070877855</v>
+        <v>46.68034048112274</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>12.0363603650375</v>
+        <v>20.45983295603003</v>
       </c>
       <c r="C6">
-        <v>1.206759492611314</v>
+        <v>2.051292657259529</v>
       </c>
       <c r="D6">
-        <v>4.771909351497582</v>
+        <v>8.111461044034135</v>
       </c>
       <c r="E6">
-        <v>1.436572153942778</v>
+        <v>2.44193638338793</v>
       </c>
       <c r="F6">
-        <v>3.64592778113755</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="G6">
-        <v>3.822419073615062</v>
+        <v>6.497483737797972</v>
       </c>
       <c r="H6">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I6">
-        <v>27.28577141754766</v>
+        <v>46.38132361847946</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>12.3247057536592</v>
+        <v>20.94997269145854</v>
       </c>
       <c r="C7">
-        <v>1.092914257459303</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="D7">
-        <v>5.219275853200482</v>
+        <v>8.871910516912331</v>
       </c>
       <c r="E7">
-        <v>2.192662761281084</v>
+        <v>3.727166058855262</v>
       </c>
       <c r="F7">
-        <v>3.128040312225966</v>
+        <v>5.317154050469633</v>
       </c>
       <c r="G7">
-        <v>3.24074660589103</v>
+        <v>5.508736212480888</v>
       </c>
       <c r="H7">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I7">
-        <v>27.76740385437065</v>
+        <v>47.20001954521722</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>13.59342546359471</v>
+        <v>23.10658752734397</v>
       </c>
       <c r="C8">
-        <v>1.183990445580912</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="D8">
-        <v>4.548226100646135</v>
+        <v>7.731236307595034</v>
       </c>
       <c r="E8">
-        <v>2.646317125684067</v>
+        <v>4.498303864135661</v>
       </c>
       <c r="F8">
-        <v>3.08660931471304</v>
+        <v>5.246728169006459</v>
       </c>
       <c r="G8">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H8">
-        <v>0.9755285325489854</v>
+        <v>1.658238056561474</v>
       </c>
       <c r="I8">
-        <v>28.11149865321082</v>
+        <v>47.78492410870622</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>15.09282148442758</v>
+        <v>25.6553141515722</v>
       </c>
       <c r="C9">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="D9">
-        <v>3.504370930006038</v>
+        <v>5.956854204212568</v>
       </c>
       <c r="E9">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F9">
-        <v>3.003747319687186</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="G9">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H9">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I9">
-        <v>28.44687614909066</v>
+        <v>48.35501069092959</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>14.65618418165757</v>
+        <v>24.91310255220904</v>
       </c>
       <c r="C10">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D10">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E10">
-        <v>5.443852372835794</v>
+        <v>9.253653663364789</v>
       </c>
       <c r="F10">
-        <v>1.615808903004142</v>
+        <v>2.746609377063783</v>
       </c>
       <c r="G10">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H10">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I10">
-        <v>26.66102297814367</v>
+        <v>45.3193540261702</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>10.33100335233198</v>
+        <v>17.56100652078142</v>
       </c>
       <c r="C11">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D11">
-        <v>2.535076842983091</v>
+        <v>4.309213679643134</v>
       </c>
       <c r="E11">
-        <v>4.234107401094507</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="F11">
-        <v>0.8286199502585342</v>
+        <v>1.408517629263479</v>
       </c>
       <c r="G11">
-        <v>0.9140567349949059</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="H11">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I11">
-        <v>19.39741724180928</v>
+        <v>32.97241894639785</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>8.757461374424956</v>
+        <v>14.88624396458585</v>
       </c>
       <c r="C12">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D12">
-        <v>1.714904923194444</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="E12">
-        <v>3.553625854490031</v>
+        <v>6.040579474696461</v>
       </c>
       <c r="F12">
-        <v>0.7871889527456074</v>
+        <v>1.338091747800305</v>
       </c>
       <c r="G12">
-        <v>1.412633135901219</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="H12">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I12">
-        <v>17.17722314416189</v>
+        <v>29.19845414390019</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>7.027389042694721</v>
+        <v>11.94540555201479</v>
       </c>
       <c r="C13">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D13">
-        <v>1.342099505108695</v>
+        <v>2.2813484186346</v>
       </c>
       <c r="E13">
-        <v>3.024362429353218</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="F13">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G13">
-        <v>0.9140567349949059</v>
+        <v>1.553746111212558</v>
       </c>
       <c r="H13">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I13">
-        <v>13.52801414008488</v>
+        <v>22.99539903581863</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>5.330270469664107</v>
+        <v>9.060583109206997</v>
       </c>
       <c r="C14">
-        <v>0.7741475990336733</v>
+        <v>1.315923591449509</v>
       </c>
       <c r="D14">
-        <v>1.118416254257246</v>
+        <v>1.9011236821955</v>
       </c>
       <c r="E14">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F14">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G14">
-        <v>0.581672467724031</v>
+        <v>0.988747525317083</v>
       </c>
       <c r="H14">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I14">
-        <v>9.118088584998882</v>
+        <v>15.49925090887557</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>3.336568068336883</v>
+        <v>5.671616938529885</v>
       </c>
       <c r="C15">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D15">
-        <v>0.8947330034057971</v>
+        <v>1.5208989457564</v>
       </c>
       <c r="E15">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="F15">
-        <v>0.4764564713986572</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="G15">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="H15">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I15">
-        <v>6.926957948416824</v>
+        <v>11.77468921001446</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>2.504485661171389</v>
+        <v>4.257213702007616</v>
       </c>
       <c r="C16">
-        <v>0.7058404579424669</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="D16">
-        <v>0.4473665017028985</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="E16">
-        <v>0.2268271822014913</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="F16">
-        <v>0.1864394888081702</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="G16">
-        <v>0.6647685345417498</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="H16">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I16">
-        <v>4.776374848557706</v>
+        <v>8.119051654579589</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>1.598257296931741</v>
+        <v>2.716774533518018</v>
       </c>
       <c r="C17">
-        <v>0.7969166460640756</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="E17">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F17">
-        <v>0.3935944763728037</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="G17">
-        <v>0.6647685345417498</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="H17">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I17">
-        <v>3.569793036833742</v>
+        <v>6.068061025604725</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.9556590022890825</v>
+        <v>1.624463123134486</v>
       </c>
       <c r="C18">
-        <v>0.6603023638816625</v>
+        <v>1.122405416236346</v>
       </c>
       <c r="D18">
-        <v>0.4473665017028985</v>
+        <v>0.7604494728781999</v>
       </c>
       <c r="F18">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G18">
-        <v>1.163344935448062</v>
+        <v>1.977495050634166</v>
       </c>
       <c r="I18">
-        <v>3.516689785912193</v>
+        <v>5.977794233125415</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.186335313186447</v>
+        <v>2.016574911477292</v>
       </c>
       <c r="C19">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D19">
-        <v>0.3728054180857487</v>
+        <v>0.6337078940651664</v>
       </c>
       <c r="E19">
-        <v>0.3024362429353218</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="F19">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G19">
-        <v>1.412633135901219</v>
+        <v>2.401243990055772</v>
       </c>
       <c r="I19">
-        <v>3.996838986276864</v>
+        <v>6.793968901837402</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>1.960748642627601</v>
+        <v>3.332950200913857</v>
       </c>
       <c r="C20">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D20">
-        <v>0.7456108361714974</v>
+        <v>1.267415788130333</v>
       </c>
       <c r="E20">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F20">
-        <v>0.4971719701551205</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="G20">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="I20">
-        <v>5.48684077311081</v>
+        <v>9.326726873371745</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>4.440518984774271</v>
+        <v>7.548151925599031</v>
       </c>
       <c r="C21">
-        <v>0.432611893577641</v>
+        <v>0.7353690658100197</v>
       </c>
       <c r="D21">
-        <v>1.714904923194444</v>
+        <v>2.915056312699767</v>
       </c>
       <c r="E21">
-        <v>1.965835579079592</v>
+        <v>3.341597156215064</v>
       </c>
       <c r="F21">
-        <v>1.242929925387801</v>
+        <v>2.112776443895219</v>
       </c>
       <c r="G21">
-        <v>2.742170204984718</v>
+        <v>4.661238333637675</v>
       </c>
       <c r="H21">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I21">
-        <v>12.57961853318801</v>
+        <v>21.3832824902135</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>8.189009036856449</v>
+        <v>13.91996848616963</v>
       </c>
       <c r="C22">
-        <v>0.4781499876384451</v>
+        <v>0.812776335895285</v>
       </c>
       <c r="D22">
-        <v>3.05700442830314</v>
+        <v>5.196404731334367</v>
       </c>
       <c r="E22">
-        <v>7.031642648246232</v>
+        <v>11.95263598184619</v>
       </c>
       <c r="F22">
-        <v>2.133696371915726</v>
+        <v>3.626932895353458</v>
       </c>
       <c r="G22">
-        <v>4.487187608156813</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="H22">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I22">
-        <v>25.53927816987497</v>
+        <v>43.41257234961476</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>11.52557710519332</v>
+        <v>19.59158542469953</v>
       </c>
       <c r="C23">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D23">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E23">
-        <v>5.519461433569623</v>
+        <v>9.382176630911527</v>
       </c>
       <c r="F23">
-        <v>2.46514435201914</v>
+        <v>4.19033994705885</v>
       </c>
       <c r="G23">
-        <v>4.487187608156813</v>
+        <v>7.627480909588921</v>
       </c>
       <c r="H23">
-        <v>0.2845291553267875</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="I23">
-        <v>27.03841302502686</v>
+        <v>45.96085503514025</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>14.08773184408906</v>
+        <v>23.94682707379285</v>
       </c>
       <c r="C24">
-        <v>0.6375333168512606</v>
+        <v>1.083701781193713</v>
       </c>
       <c r="D24">
-        <v>4.026298515326086</v>
+        <v>6.844045255903801</v>
       </c>
       <c r="E24">
-        <v>2.948753368619388</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="F24">
-        <v>2.96231632217426</v>
+        <v>5.035450524616937</v>
       </c>
       <c r="G24">
-        <v>6.481493211782061</v>
+        <v>11.01747242496178</v>
       </c>
       <c r="H24">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I24">
-        <v>31.50994977854799</v>
+        <v>53.56173206600222</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>10.61111030127877</v>
+        <v>18.03714226376912</v>
       </c>
       <c r="C25">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D25">
-        <v>3.802615264474636</v>
+        <v>6.4638205194647</v>
       </c>
       <c r="E25">
-        <v>6.275552040907927</v>
+        <v>10.66740630637886</v>
       </c>
       <c r="F25">
-        <v>3.355910798547063</v>
+        <v>5.704496398517089</v>
       </c>
       <c r="G25">
-        <v>10.38700835221484</v>
+        <v>17.65620580923362</v>
       </c>
       <c r="H25">
-        <v>0.7316463994117391</v>
+        <v>1.243678542421105</v>
       </c>
       <c r="I25">
-        <v>35.57368600338222</v>
+        <v>60.46941527055188</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>9.012853004347038</v>
+        <v>15.3203677302511</v>
       </c>
       <c r="C26">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D26">
-        <v>3.578932013623188</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="E26">
-        <v>3.024362429353218</v>
+        <v>5.140918701869327</v>
       </c>
       <c r="F26">
-        <v>3.977375761240964</v>
+        <v>6.760884620464699</v>
       </c>
       <c r="G26">
-        <v>16.28682909627288</v>
+        <v>27.68493070887831</v>
       </c>
       <c r="H26">
-        <v>0.2845291553267875</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="I26">
-        <v>36.5519552596809</v>
+        <v>62.13231210671088</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>10.80883285347652</v>
+        <v>18.37323808234865</v>
       </c>
       <c r="C27">
-        <v>0.9335309282464883</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="D27">
-        <v>6.635936441926328</v>
+        <v>11.28000051435996</v>
       </c>
       <c r="E27">
-        <v>1.285354032475118</v>
+        <v>2.184890448294464</v>
       </c>
       <c r="F27">
-        <v>3.231617806008284</v>
+        <v>5.493218754127566</v>
       </c>
       <c r="G27">
-        <v>5.318148276333998</v>
+        <v>9.039977374327611</v>
       </c>
       <c r="H27">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="I27">
-        <v>28.82312567130986</v>
+        <v>48.99457299555712</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>11.61619994161729</v>
+        <v>19.74562934154849</v>
       </c>
       <c r="C28">
-        <v>0.9562999752768903</v>
+        <v>1.62555267179057</v>
       </c>
       <c r="D28">
-        <v>6.11400885660628</v>
+        <v>10.39280946266873</v>
       </c>
       <c r="E28">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F28">
-        <v>3.45948829232938</v>
+        <v>5.880561102175025</v>
       </c>
       <c r="G28">
-        <v>4.985764009063123</v>
+        <v>8.474978788432137</v>
       </c>
       <c r="H28">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I28">
-        <v>28.68373717508634</v>
+        <v>48.75763547771668</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>11.42671582909446</v>
+        <v>19.42353751540974</v>
       </c>
       <c r="C29">
-        <v>0.8652237871552819</v>
+        <v>1.470738131620039</v>
       </c>
       <c r="D29">
-        <v>5.442959104051931</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="E29">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F29">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G29">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="H29">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I29">
-        <v>28.89782952188604</v>
+        <v>49.12155725471911</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>11.79744561446523</v>
+        <v>20.05371717524641</v>
       </c>
       <c r="C30">
-        <v>0.9335309282464883</v>
+        <v>1.586849036747937</v>
       </c>
       <c r="D30">
-        <v>6.859619692777777</v>
+        <v>11.66022525079907</v>
       </c>
       <c r="E30">
-        <v>1.360963093208948</v>
+        <v>2.313413415841197</v>
       </c>
       <c r="F30">
-        <v>3.563065786111696</v>
+        <v>6.056625805832958</v>
       </c>
       <c r="G30">
-        <v>4.154803340885936</v>
+        <v>7.062482323693447</v>
       </c>
       <c r="H30">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I30">
-        <v>29.07589867759149</v>
+        <v>49.4242455317283</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>12.07755256341203</v>
+        <v>20.52985291823408</v>
       </c>
       <c r="C31">
-        <v>0.8424547401248796</v>
+        <v>1.432034496577407</v>
       </c>
       <c r="D31">
-        <v>7.530669445332125</v>
+        <v>12.80089946011637</v>
       </c>
       <c r="E31">
-        <v>2.117053700547253</v>
+        <v>3.598643091308529</v>
       </c>
       <c r="F31">
-        <v>3.045178317200114</v>
+        <v>5.176302287543286</v>
       </c>
       <c r="G31">
-        <v>3.490034806344187</v>
+        <v>5.932485151902495</v>
       </c>
       <c r="H31">
-        <v>0.6097053328431158</v>
+        <v>1.036398785350922</v>
       </c>
       <c r="I31">
-        <v>29.7126489058037</v>
+        <v>50.5066161910331</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>13.32155695432281</v>
+        <v>22.6444557767971</v>
       </c>
       <c r="C32">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D32">
-        <v>6.561375358309177</v>
+        <v>11.15325893554693</v>
       </c>
       <c r="E32">
-        <v>2.570708064950235</v>
+        <v>4.369780896588929</v>
       </c>
       <c r="F32">
-        <v>3.003747319687186</v>
+        <v>5.10587640608011</v>
       </c>
       <c r="G32">
-        <v>2.243593804078406</v>
+        <v>3.81374045479446</v>
       </c>
       <c r="H32">
-        <v>1.056822576928067</v>
+        <v>1.796424561274931</v>
       </c>
       <c r="I32">
-        <v>29.66856595949197</v>
+        <v>50.43168243278777</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>14.78799921645606</v>
+        <v>25.13716643126207</v>
       </c>
       <c r="C33">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D33">
-        <v>5.070153685966181</v>
+        <v>8.618427359286267</v>
       </c>
       <c r="E33">
-        <v>3.931671158159183</v>
+        <v>6.683194312430128</v>
       </c>
       <c r="F33">
-        <v>2.920885324661333</v>
+        <v>4.965024643153763</v>
       </c>
       <c r="G33">
-        <v>1.911209536807531</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="H33">
-        <v>0.2845291553267875</v>
+        <v>0.4836527664970966</v>
       </c>
       <c r="I33">
-        <v>29.49844330016753</v>
+        <v>50.14250189263676</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>14.35960035336096</v>
+        <v>24.40895882433971</v>
       </c>
       <c r="C34">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D34">
-        <v>4.175420682560384</v>
+        <v>7.097528413529865</v>
       </c>
       <c r="E34">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F34">
-        <v>1.574377905491215</v>
+        <v>2.67618349560061</v>
       </c>
       <c r="G34">
-        <v>1.661921336354375</v>
+        <v>2.824992929477379</v>
       </c>
       <c r="H34">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I34">
-        <v>27.49167535084144</v>
+        <v>46.73132643930037</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>10.12504236045933</v>
+        <v>17.21090670976105</v>
       </c>
       <c r="C35">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D35">
-        <v>3.653493097240338</v>
+        <v>6.210337361838633</v>
       </c>
       <c r="E35">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F35">
-        <v>0.8079044515020709</v>
+        <v>1.373304688531892</v>
       </c>
       <c r="G35">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="H35">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I35">
-        <v>20.12995876266586</v>
+        <v>34.21761904805127</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>8.584454141251934</v>
+        <v>14.59216012332874</v>
       </c>
       <c r="C36">
-        <v>0.7058404579424669</v>
+        <v>1.199812686321611</v>
       </c>
       <c r="D36">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E36">
-        <v>3.478016793756201</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="F36">
-        <v>0.7664734539891439</v>
+        <v>1.302878807068718</v>
       </c>
       <c r="G36">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="H36">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I36">
-        <v>17.61477289803188</v>
+        <v>29.94221676005914</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>6.887335568221319</v>
+        <v>11.70733768052094</v>
       </c>
       <c r="C37">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D37">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E37">
-        <v>2.948753368619388</v>
+        <v>5.012395734322595</v>
       </c>
       <c r="F37">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G37">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="H37">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I37">
-        <v>13.81183751266329</v>
+        <v>23.47785208772616</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>5.22317075389033</v>
+        <v>8.878531207476412</v>
       </c>
       <c r="C38">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D38">
-        <v>1.640343839577294</v>
+        <v>2.788314733886733</v>
       </c>
       <c r="E38">
-        <v>0.9829177895397958</v>
+        <v>1.670798578107532</v>
       </c>
       <c r="F38">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G38">
-        <v>0.6647685345417498</v>
+        <v>1.129997171790951</v>
       </c>
       <c r="H38">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I38">
-        <v>9.433860145119654</v>
+        <v>16.03601062496902</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>3.270660550937637</v>
+        <v>5.559584999003367</v>
       </c>
       <c r="C39">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D39">
-        <v>1.267538421491545</v>
+        <v>2.154606839821567</v>
       </c>
       <c r="E39">
-        <v>0.6804815466044742</v>
+        <v>1.156706707920599</v>
       </c>
       <c r="F39">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G39">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H39">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I39">
-        <v>7.182391182012571</v>
+        <v>12.20888369508222</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>2.455055023121953</v>
+        <v>4.173189747362728</v>
       </c>
       <c r="C40">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D40">
-        <v>0.6710497525543476</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="E40">
-        <v>0.2268271822014913</v>
+        <v>0.3855689026401996</v>
       </c>
       <c r="F40">
-        <v>0.1864394888081702</v>
+        <v>0.3169164665842827</v>
       </c>
       <c r="G40">
-        <v>0.7478646013594684</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="H40">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I40">
-        <v>4.874340198964623</v>
+        <v>8.285576637549243</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>1.565303538232119</v>
+        <v>2.66075856375476</v>
       </c>
       <c r="C41">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="E41">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F41">
-        <v>0.3935944763728037</v>
+        <v>0.6690458739001525</v>
       </c>
       <c r="G41">
-        <v>0.7478646013594684</v>
+        <v>1.271246818264821</v>
       </c>
       <c r="H41">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I41">
-        <v>3.43778296870862</v>
+        <v>5.843665621974274</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.9391821229392712</v>
+        <v>1.596455138252856</v>
       </c>
       <c r="C42">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D42">
-        <v>0.6710497525543476</v>
+        <v>1.1406742093173</v>
       </c>
       <c r="F42">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G42">
-        <v>1.246441002265781</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="I42">
-        <v>3.647608895018734</v>
+        <v>6.200335185858327</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.161619994161729</v>
+        <v>1.974562934154848</v>
       </c>
       <c r="C43">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D43">
-        <v>0.521927585320048</v>
+        <v>0.8871910516912331</v>
       </c>
       <c r="E43">
-        <v>0.3024362429353218</v>
+        <v>0.5140918701869328</v>
       </c>
       <c r="F43">
-        <v>0.290016982590487</v>
+        <v>0.4929811702422176</v>
       </c>
       <c r="G43">
-        <v>1.578825269536656</v>
+        <v>2.683743283003509</v>
       </c>
       <c r="I43">
-        <v>4.196361780000274</v>
+        <v>7.13312483491823</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>1.919556444253071</v>
+        <v>3.262930238709786</v>
       </c>
       <c r="C44">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D44">
-        <v>1.043855170640096</v>
+        <v>1.774382103382466</v>
       </c>
       <c r="E44">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F44">
-        <v>0.4764564713986572</v>
+        <v>0.8098976368265004</v>
       </c>
       <c r="G44">
-        <v>1.911209536807531</v>
+        <v>3.248741868898986</v>
       </c>
       <c r="I44">
-        <v>5.798293355962245</v>
+        <v>9.856145038465428</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>4.349896148350306</v>
+        <v>7.394108008750072</v>
       </c>
       <c r="C45">
-        <v>0.3415357054560323</v>
+        <v>0.5805545256394893</v>
       </c>
       <c r="D45">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E45">
-        <v>1.890226518345762</v>
+        <v>3.213074188668331</v>
       </c>
       <c r="F45">
-        <v>1.201498927874874</v>
+        <v>2.042350562432044</v>
       </c>
       <c r="G45">
-        <v>2.991458405437874</v>
+        <v>5.084987273059284</v>
       </c>
       <c r="H45">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I45">
-        <v>13.27577848702033</v>
+        <v>22.56663991173605</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>8.02424024335833</v>
+        <v>13.63988863735335</v>
       </c>
       <c r="C46">
-        <v>0.3643047524864346</v>
+        <v>0.6192581606821218</v>
       </c>
       <c r="D46">
-        <v>4.399103933411834</v>
+        <v>7.477753149968966</v>
       </c>
       <c r="E46">
-        <v>6.804815466044741</v>
+        <v>11.56706707920599</v>
       </c>
       <c r="F46">
-        <v>2.071549875646336</v>
+        <v>3.521294073158698</v>
       </c>
       <c r="G46">
-        <v>4.902667942245404</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="H46">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I46">
-        <v>26.72927030195124</v>
+        <v>45.4353632517543</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>11.29490079429597</v>
+        <v>19.19947363635671</v>
       </c>
       <c r="C47">
-        <v>0.2276904703040215</v>
+        <v>0.3870363504263262</v>
       </c>
       <c r="D47">
-        <v>3.578932013623188</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="E47">
-        <v>5.368243312101962</v>
+        <v>9.12513069581806</v>
       </c>
       <c r="F47">
-        <v>2.402997855749749</v>
+        <v>4.084701124864089</v>
       </c>
       <c r="G47">
-        <v>4.902667942245404</v>
+        <v>8.333729141958266</v>
       </c>
       <c r="H47">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I47">
-        <v>28.10060856583663</v>
+        <v>47.76641275130287</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>13.80762489514227</v>
+        <v>23.47069133080514</v>
       </c>
       <c r="C48">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D48">
-        <v>5.81576452213768</v>
+        <v>9.885843147416598</v>
       </c>
       <c r="E48">
-        <v>2.873144307885557</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="F48">
-        <v>2.879454327148407</v>
+        <v>4.894598761690591</v>
       </c>
       <c r="G48">
-        <v>7.063165679506092</v>
+        <v>12.00621995027886</v>
       </c>
       <c r="H48">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I48">
-        <v>33.34654298838426</v>
+        <v>56.68363845147225</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>10.39691086973122</v>
+        <v>17.67303846030792</v>
       </c>
       <c r="C49">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D49">
-        <v>5.442959104051931</v>
+        <v>9.252135253351437</v>
       </c>
       <c r="E49">
-        <v>6.124333919440268</v>
+        <v>10.41036037128539</v>
       </c>
       <c r="F49">
-        <v>3.27304880352121</v>
+        <v>5.563644635590742</v>
       </c>
       <c r="G49">
-        <v>11.30106508720975</v>
+        <v>19.20995192044618</v>
       </c>
       <c r="H49">
-        <v>0.812940443790821</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="I49">
-        <v>37.67002488617083</v>
+        <v>64.03284657871309</v>
       </c>
     </row>
   </sheetData>
